--- a/chatchw/chatchw/forms/app/orchestrator.xlsx
+++ b/chatchw/chatchw/forms/app/orchestrator.xlsx
@@ -2009,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2048,16 +2048,6 @@
           <t>sms_separator</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>form_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>form_title</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2076,7 +2066,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1761024010</v>
+        <v>1761025949</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2086,16 +2076,6 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>!</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>orchestrator</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Orchestrator</t>
         </is>
       </c>
     </row>
